--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/CD/20/seed4/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/CD/20/seed4/result_data_RandomForest.xlsx
@@ -556,7 +556,7 @@
         <v>-11.52</v>
       </c>
       <c r="D7" t="n">
-        <v>-7.145299999999999</v>
+        <v>-7.082699999999996</v>
       </c>
       <c r="E7" t="n">
         <v>17.28</v>
@@ -587,7 +587,7 @@
         <v>4.86</v>
       </c>
       <c r="C9" t="n">
-        <v>-10.1398</v>
+        <v>-10.1698</v>
       </c>
       <c r="D9" t="n">
         <v>-7.01</v>
@@ -641,7 +641,7 @@
         <v>-9.76</v>
       </c>
       <c r="D12" t="n">
-        <v>-6.837099999999998</v>
+        <v>-6.884799999999999</v>
       </c>
       <c r="E12" t="n">
         <v>17.26</v>
@@ -655,7 +655,7 @@
         <v>4.02</v>
       </c>
       <c r="C13" t="n">
-        <v>-13.1473</v>
+        <v>-13.08129999999998</v>
       </c>
       <c r="D13" t="n">
         <v>-8.359999999999999</v>
@@ -675,7 +675,7 @@
         <v>-11.3</v>
       </c>
       <c r="D14" t="n">
-        <v>-7.480100000000001</v>
+        <v>-7.700300000000004</v>
       </c>
       <c r="E14" t="n">
         <v>17.29</v>
@@ -706,7 +706,7 @@
         <v>3.96</v>
       </c>
       <c r="C16" t="n">
-        <v>-13.0512</v>
+        <v>-12.9409</v>
       </c>
       <c r="D16" t="n">
         <v>-9.27</v>
@@ -740,7 +740,7 @@
         <v>4.35</v>
       </c>
       <c r="C18" t="n">
-        <v>-11.3888</v>
+        <v>-11.2193</v>
       </c>
       <c r="D18" t="n">
         <v>-6.27</v>
@@ -760,7 +760,7 @@
         <v>-12.15</v>
       </c>
       <c r="D19" t="n">
-        <v>-8.622199999999998</v>
+        <v>-8.687899999999997</v>
       </c>
       <c r="E19" t="n">
         <v>16.87</v>
@@ -774,7 +774,7 @@
         <v>10.19</v>
       </c>
       <c r="C20" t="n">
-        <v>-11.4428</v>
+        <v>-11.2957</v>
       </c>
       <c r="D20" t="n">
         <v>-10.64</v>
@@ -876,10 +876,10 @@
         <v>6.56</v>
       </c>
       <c r="C26" t="n">
-        <v>-12.6044</v>
+        <v>-12.4527</v>
       </c>
       <c r="D26" t="n">
-        <v>-8.569099999999997</v>
+        <v>-8.507300000000004</v>
       </c>
       <c r="E26" t="n">
         <v>13.83</v>
@@ -893,10 +893,10 @@
         <v>5.54</v>
       </c>
       <c r="C27" t="n">
-        <v>-12.88789999999999</v>
+        <v>-12.9514</v>
       </c>
       <c r="D27" t="n">
-        <v>-8.622400000000003</v>
+        <v>-8.6653</v>
       </c>
       <c r="E27" t="n">
         <v>15.34</v>
@@ -927,10 +927,10 @@
         <v>7.52</v>
       </c>
       <c r="C29" t="n">
-        <v>-11.40220000000001</v>
+        <v>-11.30840000000001</v>
       </c>
       <c r="D29" t="n">
-        <v>-7.052099999999998</v>
+        <v>-7.211299999999997</v>
       </c>
       <c r="E29" t="n">
         <v>17.76</v>
@@ -1029,7 +1029,7 @@
         <v>10.18</v>
       </c>
       <c r="C35" t="n">
-        <v>-12.26830000000001</v>
+        <v>-12.13710000000001</v>
       </c>
       <c r="D35" t="n">
         <v>-9.9</v>
@@ -1046,7 +1046,7 @@
         <v>9.84</v>
       </c>
       <c r="C36" t="n">
-        <v>-12.42770000000001</v>
+        <v>-12.26340000000001</v>
       </c>
       <c r="D36" t="n">
         <v>-9.050000000000001</v>
@@ -1066,7 +1066,7 @@
         <v>-12.29</v>
       </c>
       <c r="D37" t="n">
-        <v>-7.675999999999995</v>
+        <v>-7.622999999999998</v>
       </c>
       <c r="E37" t="n">
         <v>16.03</v>
@@ -1083,7 +1083,7 @@
         <v>-12.46</v>
       </c>
       <c r="D38" t="n">
-        <v>-8.250499999999994</v>
+        <v>-8.156799999999995</v>
       </c>
       <c r="E38" t="n">
         <v>15.23</v>
@@ -1199,7 +1199,7 @@
         <v>5.73</v>
       </c>
       <c r="C45" t="n">
-        <v>-13.66229999999999</v>
+        <v>-13.57749999999999</v>
       </c>
       <c r="D45" t="n">
         <v>-7.87</v>
@@ -1236,7 +1236,7 @@
         <v>-11.84</v>
       </c>
       <c r="D47" t="n">
-        <v>-7.392900000000001</v>
+        <v>-7.2554</v>
       </c>
       <c r="E47" t="n">
         <v>17.05</v>
@@ -1304,7 +1304,7 @@
         <v>-13.17</v>
       </c>
       <c r="D51" t="n">
-        <v>-8.116099999999999</v>
+        <v>-7.960799999999998</v>
       </c>
       <c r="E51" t="n">
         <v>17.2</v>
@@ -1321,7 +1321,7 @@
         <v>-14.35</v>
       </c>
       <c r="D52" t="n">
-        <v>-8.067900000000002</v>
+        <v>-7.856799999999998</v>
       </c>
       <c r="E52" t="n">
         <v>17.44</v>
@@ -1369,10 +1369,10 @@
         <v>5.38</v>
       </c>
       <c r="C55" t="n">
-        <v>-14.31630000000002</v>
+        <v>-14.13220000000001</v>
       </c>
       <c r="D55" t="n">
-        <v>-9.038599999999994</v>
+        <v>-8.938499999999998</v>
       </c>
       <c r="E55" t="n">
         <v>16.57</v>
@@ -1403,7 +1403,7 @@
         <v>4.82</v>
       </c>
       <c r="C57" t="n">
-        <v>-13.74919999999999</v>
+        <v>-14.02059999999999</v>
       </c>
       <c r="D57" t="n">
         <v>-8.31</v>
@@ -1607,10 +1607,10 @@
         <v>4.98</v>
       </c>
       <c r="C69" t="n">
-        <v>-10.522</v>
+        <v>-10.4184</v>
       </c>
       <c r="D69" t="n">
-        <v>-7.008799999999995</v>
+        <v>-6.967199999999996</v>
       </c>
       <c r="E69" t="n">
         <v>17.51</v>
@@ -1627,7 +1627,7 @@
         <v>-9.9</v>
       </c>
       <c r="D70" t="n">
-        <v>-7.171600000000002</v>
+        <v>-7.282999999999999</v>
       </c>
       <c r="E70" t="n">
         <v>17.62</v>
@@ -1726,10 +1726,10 @@
         <v>9.23</v>
       </c>
       <c r="C76" t="n">
-        <v>-11.71230000000001</v>
+        <v>-11.99540000000002</v>
       </c>
       <c r="D76" t="n">
-        <v>-7.393100000000001</v>
+        <v>-7.508599999999998</v>
       </c>
       <c r="E76" t="n">
         <v>16.38</v>
@@ -1760,7 +1760,7 @@
         <v>9.640000000000001</v>
       </c>
       <c r="C78" t="n">
-        <v>-11.52820000000001</v>
+        <v>-11.55400000000001</v>
       </c>
       <c r="D78" t="n">
         <v>-6.53</v>
@@ -1814,7 +1814,7 @@
         <v>-11.36</v>
       </c>
       <c r="D81" t="n">
-        <v>-7.387500000000004</v>
+        <v>-7.655600000000002</v>
       </c>
       <c r="E81" t="n">
         <v>17.6</v>
@@ -1828,7 +1828,7 @@
         <v>5.26</v>
       </c>
       <c r="C82" t="n">
-        <v>-11.27809999999999</v>
+        <v>-11.3526</v>
       </c>
       <c r="D82" t="n">
         <v>-7.37</v>
@@ -1845,10 +1845,10 @@
         <v>5.84</v>
       </c>
       <c r="C83" t="n">
-        <v>-13.65030000000001</v>
+        <v>-14.02340000000001</v>
       </c>
       <c r="D83" t="n">
-        <v>-8.811599999999999</v>
+        <v>-8.6508</v>
       </c>
       <c r="E83" t="n">
         <v>16.38</v>
@@ -2015,7 +2015,7 @@
         <v>7.55</v>
       </c>
       <c r="C93" t="n">
-        <v>-10.75670000000001</v>
+        <v>-11.06240000000001</v>
       </c>
       <c r="D93" t="n">
         <v>-6.1</v>
@@ -2035,7 +2035,7 @@
         <v>-10.65</v>
       </c>
       <c r="D94" t="n">
-        <v>-7.010099999999999</v>
+        <v>-6.908299999999997</v>
       </c>
       <c r="E94" t="n">
         <v>17.92</v>
@@ -2083,7 +2083,7 @@
         <v>5.08</v>
       </c>
       <c r="C97" t="n">
-        <v>-12.7846</v>
+        <v>-13.0492</v>
       </c>
       <c r="D97" t="n">
         <v>-7.59</v>
@@ -2137,7 +2137,7 @@
         <v>-14.32</v>
       </c>
       <c r="D100" t="n">
-        <v>-8.316300000000005</v>
+        <v>-8.259900000000002</v>
       </c>
       <c r="E100" t="n">
         <v>15.6</v>
@@ -2171,7 +2171,7 @@
         <v>-12</v>
       </c>
       <c r="D102" t="n">
-        <v>-7.745499999999996</v>
+        <v>-7.721899999999998</v>
       </c>
       <c r="E102" t="n">
         <v>16.08</v>
